--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2574.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2574.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9286770272358804</v>
+        <v>0.6971663236618042</v>
       </c>
       <c r="B1">
-        <v>1.44608516465651</v>
+        <v>3.750109434127808</v>
       </c>
       <c r="C1">
-        <v>3.425495155519229</v>
+        <v>5.583365917205811</v>
       </c>
       <c r="D1">
-        <v>2.2223110706641</v>
+        <v>1.248443961143494</v>
       </c>
       <c r="E1">
-        <v>0.8567552327845311</v>
+        <v>0.71803218126297</v>
       </c>
     </row>
   </sheetData>
